--- a/rsc/bom nodo ttn_mad v2_2.xlsx
+++ b/rsc/bom nodo ttn_mad v2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanfe\CloudStation\Proyectos\TheThingsNetwork\ProyectoIoTopenTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93F18D3-E78D-4BEB-A9BA-4E3B6741617E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7B637-CF75-4336-9140-3A17237B2770}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{16364D3B-D716-48DE-91C4-61E220D9AB4F}"/>
   </bookViews>
@@ -309,9 +309,6 @@
     <t>Extensión GPS. Requiere extensión auxiliar booster  y extensión auxiliar puerto de ampliación</t>
   </si>
   <si>
-    <t xml:space="preserve">Extensión LDR. Requiere extensión auxiliar booster </t>
-  </si>
-  <si>
     <t>1x Resistencia 4.7k en formato 0603</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>https://es.aliexpress.com/item/32630707917.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Extensión NTC. Requiere extensión auxiliar booster </t>
-  </si>
-  <si>
     <t>https://es.aliexpress.com/item/2044621392.html</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>Extensión Hall</t>
+  </si>
+  <si>
+    <t>Extensión LDR</t>
+  </si>
+  <si>
+    <t>Extensión NTC</t>
   </si>
 </sst>
 </file>
@@ -523,12 +523,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -538,18 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -564,12 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE1DFE3-DA7A-48D5-9CC8-EC55B00BF35F}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,11 +902,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -923,12 +923,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -999,19 +999,19 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1020,8 +1020,8 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1031,7 +1031,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1043,18 +1043,18 @@
       <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1067,15 +1067,15 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1087,7 +1087,7 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="8" t="s">
         <v>74</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1117,15 +1117,15 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1137,7 +1137,7 @@
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="10" t="s">
         <v>75</v>
       </c>
@@ -1147,21 +1147,21 @@
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -1173,7 +1173,7 @@
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="11" t="s">
         <v>21</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="11" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="11" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="11" t="s">
         <v>27</v>
       </c>
@@ -1213,12 +1213,12 @@
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
@@ -1241,12 +1241,12 @@
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1279,15 +1279,15 @@
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="38" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -1299,7 +1299,7 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
@@ -1337,12 +1337,12 @@
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -1365,12 +1365,12 @@
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
@@ -1393,12 +1393,12 @@
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
@@ -1411,27 +1411,27 @@
       <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>55</v>
@@ -1439,41 +1439,35 @@
       <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D59" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A54:D54"/>
@@ -1487,6 +1481,12 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{C5D7264E-16CE-4115-AD19-755DBE273DAE}"/>
